--- a/customSim/LES/systemDefinition/resourceDomain/ManufacturingSystem.xlsx
+++ b/customSim/LES/systemDefinition/resourceDomain/ManufacturingSystem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>env</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>cells</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>kwargs</t>
         </is>
